--- a/docs/StructureDefinition-BundleESAVI.xlsx
+++ b/docs/StructureDefinition-BundleESAVI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T17:15:01-06:00</t>
+    <t>2024-11-01T00:12:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
